--- a/output/ValueSet-AminoAcideChangeType.xlsx
+++ b/output/ValueSet-AminoAcideChangeType.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-10T11:48:35+02:00</t>
+    <t>2023-04-12T16:34:31+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-AminoAcideChangeType.xlsx
+++ b/output/ValueSet-AminoAcideChangeType.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T16:34:31+02:00</t>
+    <t>2023-04-14T09:19:10+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-AminoAcideChangeType.xlsx
+++ b/output/ValueSet-AminoAcideChangeType.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-14T09:19:10+02:00</t>
+    <t>2023-04-25T09:25:14+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-AminoAcideChangeType.xlsx
+++ b/output/ValueSet-AminoAcideChangeType.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-25T09:25:14+02:00</t>
+    <t>2023-05-04T10:39:35+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-AminoAcideChangeType.xlsx
+++ b/output/ValueSet-AminoAcideChangeType.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T10:39:35+02:00</t>
+    <t>2023-05-04T16:19:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-AminoAcideChangeType.xlsx
+++ b/output/ValueSet-AminoAcideChangeType.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T16:19:38+02:00</t>
+    <t>2023-05-04T17:29:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
